--- a/账单.xlsx
+++ b/账单.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="酒水支付" sheetId="1" r:id="rId1"/>
     <sheet name="强贷" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="五金支出" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,50 @@
   </si>
   <si>
     <t>酒水支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大哥飞机票茅台-上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样品快递费（扬州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动车刀1把，刀片2片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +454,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,10 +504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,7 +603,7 @@
         <v>15.699999999999818</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E7" si="0">E4-D5</f>
+        <f t="shared" ref="E5:E8" si="0">E4-D5</f>
         <v>1872.3300000000002</v>
       </c>
     </row>
@@ -574,7 +618,7 @@
         <v>2784.3</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D7" si="1">B6-C6</f>
+        <f t="shared" ref="D6:D8" si="1">B6-C6</f>
         <v>0.6999999999998181</v>
       </c>
       <c r="E6">
@@ -599,6 +643,25 @@
       <c r="E7">
         <f t="shared" si="0"/>
         <v>1871.9300000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20190807</v>
+      </c>
+      <c r="B8">
+        <v>2784</v>
+      </c>
+      <c r="C8">
+        <v>2784.3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-0.3000000000001819</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1872.2300000000007</v>
       </c>
     </row>
   </sheetData>
@@ -613,13 +676,211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20190818</v>
+      </c>
+      <c r="B2">
+        <v>878</v>
+      </c>
+      <c r="C2">
+        <v>878</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20190818</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f>C2+B3</f>
+        <v>884</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20190819</v>
+      </c>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <f>C3+B4</f>
+        <v>987</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>4069.45</v>
+      </c>
+      <c r="E12">
+        <v>3833.44</v>
+      </c>
+      <c r="F12">
+        <v>8.5199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>45000</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>364.5</v>
+      </c>
+      <c r="E13">
+        <v>7148.25</v>
+      </c>
+      <c r="F13">
+        <v>0.15890000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>21700</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>2141.17</v>
+      </c>
+      <c r="E14">
+        <v>4051.6</v>
+      </c>
+      <c r="F14">
+        <v>0.1867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>15580</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1401.82</v>
+      </c>
+      <c r="E15">
+        <v>1142.8599999999999</v>
+      </c>
+      <c r="F15">
+        <v>7.3300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>29500</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2806.67</v>
+      </c>
+      <c r="E16">
+        <v>4180.04</v>
+      </c>
+      <c r="F16">
+        <v>0.14169999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>B13+B14+B15+B16</f>
+        <v>111780</v>
+      </c>
+      <c r="D17">
+        <f>D13+D14+D15+D16</f>
+        <v>6714.16</v>
+      </c>
+      <c r="E17">
+        <f>E13+E14+E15+E16</f>
+        <v>16522.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f>D12+D14+D15+D16</f>
+        <v>10419.11</v>
+      </c>
+      <c r="E18">
+        <f>E12+E14+E15+E16</f>
+        <v>13207.939999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>15580</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>750.99</v>
+      </c>
+      <c r="E20">
+        <v>2443.71</v>
+      </c>
+      <c r="F20">
+        <v>7.8399999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/账单.xlsx
+++ b/账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20190" windowHeight="8670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20190" windowHeight="8670" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="酒水支付" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,14 @@
   </si>
   <si>
     <t>卖出两瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9120-8510=610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>370-343=27*4=108</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1211,17 +1219,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1301,6 +1309,24 @@
       </c>
       <c r="F5">
         <v>2750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20200620</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>1500</v>
+      </c>
+      <c r="F6">
+        <f>610+108+1500</f>
+        <v>2218</v>
       </c>
     </row>
   </sheetData>
